--- a/psit_data.xlsx
+++ b/psit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniejuu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777BFEF5-A91A-1C46-8829-3ACAFF65A200}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DFF1C-E0F8-4777-A862-784DA899FA4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14380" yWindow="1380" windowWidth="22040" windowHeight="14420" xr2:uid="{4AE04AE7-66B0-1741-989E-5B1696ED2368}"/>
+    <workbookView xWindow="14376" yWindow="1380" windowWidth="22044" windowHeight="14424" xr2:uid="{4AE04AE7-66B0-1741-989E-5B1696ED2368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,30 +49,67 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,11 +117,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -93,6 +225,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,4282 +588,4282 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FFD446-779C-B447-BE46-92DE5507A904}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:F213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>238871</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="11">
         <v>31.84</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="11">
         <v>34.340000000000003</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="11">
         <v>30.94</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <v>20.12</v>
       </c>
-      <c r="F2" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="F2" s="12">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>238872</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="14">
         <v>31.84</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="14">
         <v>30.94</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="14">
         <v>20.12</v>
       </c>
-      <c r="F3" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="F3" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>238873</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="14">
         <v>31.84</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="14">
         <v>30.94</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="14">
         <v>20.12</v>
       </c>
-      <c r="F4" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="F4" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>238874</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="14">
         <v>31.84</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="14">
         <v>30.94</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="14">
         <v>20.12</v>
       </c>
-      <c r="F5" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="F5" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>238875</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="14">
         <v>31.84</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="14">
         <v>30.94</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="14">
         <v>20.12</v>
       </c>
-      <c r="F6" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="F6" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>238876</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="14">
         <v>31.84</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="14">
         <v>40.94</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="14">
         <v>20.12</v>
       </c>
-      <c r="F7" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="F7" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>238877</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="14">
         <v>31.84</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="14">
         <v>40.94</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="14">
         <v>20.12</v>
       </c>
-      <c r="F8" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="F8" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>238878</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="14">
         <v>31.84</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="14">
         <v>40.94</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="14">
         <v>20.12</v>
       </c>
-      <c r="F9" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="F9" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>238879</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="14">
         <v>31.84</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="14">
         <v>40.94</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="14">
         <v>20.12</v>
       </c>
-      <c r="F10" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="F10" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>238880</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="14">
         <v>31.84</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="14">
         <v>40.94</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="14">
         <v>20.12</v>
       </c>
-      <c r="F11" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="F11" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>238881</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="14">
         <v>31.84</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="14">
         <v>40.94</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="14">
         <v>20.12</v>
       </c>
-      <c r="F12" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="F12" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>238882</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="14">
         <v>31.84</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="14">
         <v>40.94</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="14">
         <v>20.12</v>
       </c>
-      <c r="F13" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="F13" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>238883</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="14">
         <v>31.84</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="14">
         <v>40.94</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="14">
         <v>20.12</v>
       </c>
-      <c r="F14" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="F14" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>238884</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="14">
         <v>32.340000000000003</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="14">
         <v>31.44</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="14">
         <v>20.62</v>
       </c>
-      <c r="F15" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="F15" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>238885</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="14">
         <v>32.340000000000003</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="14">
         <v>31.44</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="14">
         <v>20.62</v>
       </c>
-      <c r="F16" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="F16" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>238886</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="14">
         <v>32.340000000000003</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="14">
         <v>31.44</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="14">
         <v>20.62</v>
       </c>
-      <c r="F17" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="F17" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>238887</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="14">
         <v>32.340000000000003</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="14">
         <v>31.44</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="14">
         <v>20.62</v>
       </c>
-      <c r="F18" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="F18" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>238888</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="14">
         <v>32.340000000000003</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="14">
         <v>31.44</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="14">
         <v>20.62</v>
       </c>
-      <c r="F19" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="F19" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>238889</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="14">
         <v>32.64</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="14">
         <v>35.14</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="14">
         <v>31.74</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="14">
         <v>20.92</v>
       </c>
-      <c r="F20" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="F20" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>238890</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="14">
         <v>32.64</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="14">
         <v>35.14</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="14">
         <v>31.74</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="14">
         <v>20.92</v>
       </c>
-      <c r="F21" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="F21" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>238891</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="14">
         <v>32.64</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="14">
         <v>35.14</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="14">
         <v>31.74</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="14">
         <v>20.92</v>
       </c>
-      <c r="F22" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="F22" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>238892</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="14">
         <v>32.64</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="14">
         <v>35.14</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="14">
         <v>31.74</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="14">
         <v>20.92</v>
       </c>
-      <c r="F23" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="F23" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <v>238893</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="14">
         <v>32.64</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="14">
         <v>35.14</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="14">
         <v>31.74</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="14">
         <v>20.92</v>
       </c>
-      <c r="F24" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="F24" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <v>238894</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="14">
         <v>32.64</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="14">
         <v>35.14</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="14">
         <v>31.74</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="14">
         <v>20.92</v>
       </c>
-      <c r="F25" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="F25" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>238895</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="14">
         <v>32.64</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="14">
         <v>35.14</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="14">
         <v>31.74</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="14">
         <v>20.92</v>
       </c>
-      <c r="F26" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="F26" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>238896</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="14">
         <v>32.64</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="14">
         <v>35.14</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="14">
         <v>31.74</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="14">
         <v>20.92</v>
       </c>
-      <c r="F27" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="F27" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>238897</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="14">
         <v>32.64</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="14">
         <v>35.14</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="14">
         <v>31.74</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="14">
         <v>20.92</v>
       </c>
-      <c r="F28" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="F28" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <v>238898</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="14">
         <v>32.64</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="14">
         <v>35.14</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="14">
         <v>31.74</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="14">
         <v>20.92</v>
       </c>
-      <c r="F29" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="F29" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>238899</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="14">
         <v>32.64</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="14">
         <v>35.14</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="14">
         <v>31.74</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="14">
         <v>20.92</v>
       </c>
-      <c r="F30" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="F30" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>238900</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="14">
         <v>32.64</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="14">
         <v>35.14</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="14">
         <v>31.74</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="14">
         <v>20.92</v>
       </c>
-      <c r="F31" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="F31" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
         <v>238901</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="17">
         <v>32.64</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="17">
         <v>35.14</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="17">
         <v>31.74</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="17">
         <v>20.92</v>
       </c>
-      <c r="F32" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="F32" s="18">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>238902</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="11">
         <v>32.64</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="11">
         <v>35.14</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="11">
         <v>31.74</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="11">
         <v>20.92</v>
       </c>
-      <c r="F33" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="F33" s="12">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>238903</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="14">
         <v>32.64</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="14">
         <v>35.14</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="14">
         <v>31.74</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="14">
         <v>20.92</v>
       </c>
-      <c r="F34" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="F34" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
         <v>238904</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="14">
         <v>32.94</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="14">
         <v>35.44</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="14">
         <v>32.04</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="14">
         <v>20.92</v>
       </c>
-      <c r="F35" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="F35" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
         <v>238905</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="14">
         <v>32.94</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="14">
         <v>35.44</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="14">
         <v>32.04</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="14">
         <v>20.92</v>
       </c>
-      <c r="F36" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="F36" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
         <v>238906</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="14">
         <v>32.94</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="14">
         <v>35.44</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="14">
         <v>32.04</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="14">
         <v>20.92</v>
       </c>
-      <c r="F37" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="F37" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>238907</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="14">
         <v>32.94</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="14">
         <v>35.44</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="14">
         <v>32.04</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="14">
         <v>20.92</v>
       </c>
-      <c r="F38" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="F38" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
         <v>238908</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="14">
         <v>32.94</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="14">
         <v>35.44</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="14">
         <v>32.04</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="14">
         <v>20.92</v>
       </c>
-      <c r="F39" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="F39" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
         <v>238909</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="14">
         <v>32.94</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="14">
         <v>35.44</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="14">
         <v>32.04</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="14">
         <v>20.92</v>
       </c>
-      <c r="F40" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="F40" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
         <v>238910</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="14">
         <v>32.94</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="14">
         <v>35.44</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="14">
         <v>32.04</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="14">
         <v>20.92</v>
       </c>
-      <c r="F41" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="F41" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
         <v>238911</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="14">
         <v>32.94</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="14">
         <v>35.44</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="14">
         <v>32.04</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="14">
         <v>20.92</v>
       </c>
-      <c r="F42" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="F42" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
         <v>238912</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="14">
         <v>32.94</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="14">
         <v>35.44</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="14">
         <v>32.04</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="14">
         <v>20.92</v>
       </c>
-      <c r="F43" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="F43" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
         <v>238913</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="14">
         <v>32.44</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="14">
         <v>21.12</v>
       </c>
-      <c r="F44" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="F44" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
         <v>238914</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="14">
         <v>32.44</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="14">
         <v>21.12</v>
       </c>
-      <c r="F45" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="F45" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
         <v>238915</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="14">
         <v>32.44</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="14">
         <v>21.12</v>
       </c>
-      <c r="F46" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="F46" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
         <v>238916</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="14">
         <v>32.44</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="14">
         <v>21.12</v>
       </c>
-      <c r="F47" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="F47" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
         <v>238917</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="14">
         <v>32.44</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="14">
         <v>21.12</v>
       </c>
-      <c r="F48" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="F48" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
         <v>238918</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="14">
         <v>32.44</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="14">
         <v>21.12</v>
       </c>
-      <c r="F49" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="F49" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
         <v>238919</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="14">
         <v>32.44</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="14">
         <v>21.12</v>
       </c>
-      <c r="F50" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="F50" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
         <v>238920</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="14">
         <v>32.44</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="14">
         <v>21.12</v>
       </c>
-      <c r="F51" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="F51" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
         <v>238921</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="14">
         <v>32.44</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="14">
         <v>21.12</v>
       </c>
-      <c r="F52" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="F52" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
         <v>238922</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="14">
         <v>32.44</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="14">
         <v>21.12</v>
       </c>
-      <c r="F53" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="F53" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
         <v>238923</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="14">
         <v>32.44</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="14">
         <v>21.12</v>
       </c>
-      <c r="F54" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="F54" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
         <v>238924</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="14">
         <v>32.44</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="14">
         <v>21.12</v>
       </c>
-      <c r="F55" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="F55" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
         <v>238925</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="14">
         <v>32.44</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="14">
         <v>21.12</v>
       </c>
-      <c r="F56" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="F56" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
         <v>238926</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="14">
         <v>33.840000000000003</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="14">
         <v>32.94</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="14">
         <v>21.42</v>
       </c>
-      <c r="F57" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="F57" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
         <v>238927</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="14">
         <v>33.840000000000003</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="14">
         <v>32.94</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="14">
         <v>21.42</v>
       </c>
-      <c r="F58" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="F58" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
         <v>238928</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="14">
         <v>36.840000000000003</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="14">
         <v>33.44</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="14">
         <v>21.72</v>
       </c>
-      <c r="F59" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="F59" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16">
         <v>238929</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="17">
         <v>34.340000000000003</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="17">
         <v>36.840000000000003</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="17">
         <v>33.44</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="17">
         <v>21.72</v>
       </c>
-      <c r="F60" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="F60" s="18">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>238930</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="11">
         <v>34.340000000000003</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="11">
         <v>36.840000000000003</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="11">
         <v>33.44</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="11">
         <v>21.72</v>
       </c>
-      <c r="F61" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="F61" s="12">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
         <v>238931</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="14">
         <v>36.840000000000003</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="14">
         <v>33.44</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="14">
         <v>21.72</v>
       </c>
-      <c r="F62" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="F62" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
         <v>238932</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="14">
         <v>36.840000000000003</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="14">
         <v>33.44</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="14">
         <v>21.72</v>
       </c>
-      <c r="F63" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="F63" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
         <v>238933</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="14">
         <v>33.94</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="14">
         <v>22.02</v>
       </c>
-      <c r="F64" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="F64" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
         <v>238934</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="14">
         <v>33.94</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="14">
         <v>22.02</v>
       </c>
-      <c r="F65" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="F65" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
         <v>238935</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="14">
         <v>33.94</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="14">
         <v>22.02</v>
       </c>
-      <c r="F66" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="F66" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
         <v>238936</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="14">
         <v>33.94</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="14">
         <v>22.02</v>
       </c>
-      <c r="F67" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="F67" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
         <v>238937</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="14">
         <v>33.94</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="14">
         <v>22.02</v>
       </c>
-      <c r="F68" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="F68" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
         <v>238938</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="14">
         <v>35.340000000000003</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="14">
         <v>37.840000000000003</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="14">
         <v>34.44</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="14">
         <v>22.32</v>
       </c>
-      <c r="F69" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="F69" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
         <v>238939</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="14">
         <v>33.94</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="14">
         <v>22.02</v>
       </c>
-      <c r="F70" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="F70" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
         <v>238940</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="14">
         <v>33.94</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="14">
         <v>22.02</v>
       </c>
-      <c r="F71" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="F71" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
         <v>238941</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="14">
         <v>33.94</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="14">
         <v>22.02</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
         <v>238942</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="14">
         <v>33.94</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="14">
         <v>22.02</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
         <v>238943</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="14">
         <v>33.94</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="14">
         <v>22.02</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
         <v>238944</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="14">
         <v>33.94</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="14">
         <v>22.02</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
         <v>238945</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="14">
         <v>37.340000000000003</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="14">
         <v>33.94</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="14">
         <v>22.02</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
         <v>238946</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="14">
         <v>34.44</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="14">
         <v>36.94</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="14">
         <v>33.54</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="14">
         <v>21.82</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
         <v>238947</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="14">
         <v>34.44</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="14">
         <v>36.94</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="14">
         <v>33.54</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="14">
         <v>21.82</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
         <v>238948</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="14">
         <v>34.44</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="14">
         <v>36.94</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="14">
         <v>33.54</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="14">
         <v>21.82</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
         <v>238949</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="14">
         <v>34.94</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="14">
         <v>37.44</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="14">
         <v>34.04</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="14">
         <v>22.12</v>
       </c>
-      <c r="F80" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="F80" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
         <v>238950</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="14">
         <v>34.94</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="14">
         <v>37.44</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="14">
         <v>34.04</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="14">
         <v>22.12</v>
       </c>
-      <c r="F81" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="F81" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
         <v>238951</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="14">
         <v>34.94</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="14">
         <v>37.44</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="14">
         <v>34.04</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="14">
         <v>22.12</v>
       </c>
-      <c r="F82" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="F82" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
         <v>238952</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="14">
         <v>34.94</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="14">
         <v>37.44</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="14">
         <v>34.04</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="14">
         <v>22.12</v>
       </c>
-      <c r="F83" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="F83" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="13">
         <v>238953</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="14">
         <v>34.94</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="14">
         <v>37.44</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="14">
         <v>34.04</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="14">
         <v>22.12</v>
       </c>
-      <c r="F84" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="F84" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
         <v>238954</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="14">
         <v>34.94</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="14">
         <v>37.44</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="14">
         <v>34.04</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="14">
         <v>22.12</v>
       </c>
-      <c r="F85" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="F85" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="13">
         <v>238955</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="14">
         <v>34.94</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="14">
         <v>37.44</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="14">
         <v>34.04</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="14">
         <v>22.12</v>
       </c>
-      <c r="F86" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="F86" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="13">
         <v>238956</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="14">
         <v>34.94</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="14">
         <v>37.44</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="14">
         <v>34.04</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="14">
         <v>22.12</v>
       </c>
-      <c r="F87" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="F87" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
         <v>238957</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="14">
         <v>34.94</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="14">
         <v>37.44</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="14">
         <v>34.04</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="14">
         <v>22.12</v>
       </c>
-      <c r="F88" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="F88" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="13">
         <v>238958</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="14">
         <v>34.94</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="14">
         <v>37.44</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="14">
         <v>34.04</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="14">
         <v>22.12</v>
       </c>
-      <c r="F89" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="F89" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A90" s="13">
         <v>238959</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="14">
         <v>34.94</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="14">
         <v>37.44</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="14">
         <v>34.04</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="14">
         <v>22.12</v>
       </c>
-      <c r="F90" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="F90" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="16">
         <v>238960</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="17">
         <v>34.94</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="17">
         <v>37.44</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="17">
         <v>34.04</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="17">
         <v>22.12</v>
       </c>
-      <c r="F91" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="F91" s="18">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
         <v>238961</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="11">
         <v>34.94</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="11">
         <v>37.44</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="11">
         <v>34.04</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="11">
         <v>22.12</v>
       </c>
-      <c r="F92" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="F92" s="12">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="13">
         <v>238962</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="14">
         <v>34.94</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="14">
         <v>37.44</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="14">
         <v>34.04</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="14">
         <v>22.12</v>
       </c>
-      <c r="F93" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="F93" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="13">
         <v>238963</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="14">
         <v>34.94</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="14">
         <v>37.44</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="14">
         <v>34.04</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="14">
         <v>22.12</v>
       </c>
-      <c r="F94" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="F94" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A95" s="13">
         <v>238964</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="14">
         <v>35.44</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="14">
         <v>37.94</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="14">
         <v>34.54</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="14">
         <v>22.42</v>
       </c>
-      <c r="F95" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="F95" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="13">
         <v>238965</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="14">
         <v>35.44</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="14">
         <v>37.94</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="14">
         <v>34.54</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="14">
         <v>22.42</v>
       </c>
-      <c r="F96" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="F96" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
         <v>238966</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="14">
         <v>35.44</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="14">
         <v>37.94</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="14">
         <v>34.54</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="14">
         <v>22.42</v>
       </c>
-      <c r="F97" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="F97" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="13">
         <v>238967</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="14">
         <v>35.44</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="14">
         <v>37.94</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="14">
         <v>34.54</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="14">
         <v>22.42</v>
       </c>
-      <c r="F98" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="F98" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A99" s="13">
         <v>238968</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="14">
         <v>38.340000000000003</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="14">
         <v>34.94</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="14">
         <v>22.62</v>
       </c>
-      <c r="F99" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="F99" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A100" s="13">
         <v>238969</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="14">
         <v>38.340000000000003</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="14">
         <v>34.94</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="14">
         <v>22.62</v>
       </c>
-      <c r="F100" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="F100" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="13">
         <v>238970</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="14">
         <v>38.340000000000003</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="14">
         <v>34.94</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="14">
         <v>22.62</v>
       </c>
-      <c r="F101" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="F101" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="13">
         <v>238971</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="14">
         <v>35.840000000000003</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="14">
         <v>38.340000000000003</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="14">
         <v>34.94</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="14">
         <v>22.62</v>
       </c>
-      <c r="F102" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="F102" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="13">
         <v>238972</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="14">
         <v>35.44</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="14">
         <v>22.92</v>
       </c>
-      <c r="F103" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="F103" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A104" s="13">
         <v>238973</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="14">
         <v>35.44</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="14">
         <v>22.92</v>
       </c>
-      <c r="F104" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="F104" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A105" s="13">
         <v>238974</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="14">
         <v>35.44</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="14">
         <v>22.92</v>
       </c>
-      <c r="F105" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="F105" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A106" s="13">
         <v>238975</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="14">
         <v>35.44</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="14">
         <v>22.92</v>
       </c>
-      <c r="F106" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="F106" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="13">
         <v>238976</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="14">
         <v>35.44</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="14">
         <v>22.92</v>
       </c>
-      <c r="F107" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="F107" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A108" s="13">
         <v>238977</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="14">
         <v>35.44</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="14">
         <v>22.92</v>
       </c>
-      <c r="F108" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="F108" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A109" s="13">
         <v>238978</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="14">
         <v>35.44</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="14">
         <v>22.92</v>
       </c>
-      <c r="F109" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="F109" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="13">
         <v>238979</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="14">
         <v>35.44</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="14">
         <v>22.92</v>
       </c>
-      <c r="F110" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="F110" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="13">
         <v>238980</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="14">
         <v>38.840000000000003</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="14">
         <v>35.44</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="14">
         <v>22.92</v>
       </c>
-      <c r="F111" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="F111" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A112" s="13">
         <v>238981</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="14">
         <v>35.94</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="14">
         <v>38.44</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="14">
         <v>35.04</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="14">
         <v>22.72</v>
       </c>
-      <c r="F112" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="F112" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A113" s="13">
         <v>238982</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="14">
         <v>35.94</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="14">
         <v>38.44</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="14">
         <v>35.04</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="14">
         <v>22.72</v>
       </c>
-      <c r="F113" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="F113" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="13">
         <v>238983</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="14">
         <v>38.83</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="14">
         <v>35.44</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="14">
         <v>22.72</v>
       </c>
-      <c r="F114" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="F114" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A115" s="13">
         <v>238984</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="14">
         <v>38.83</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="14">
         <v>35.44</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="14">
         <v>22.72</v>
       </c>
-      <c r="F115" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="F115" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A116" s="13">
         <v>238985</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="14">
         <v>38.83</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="14">
         <v>35.44</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="14">
         <v>22.72</v>
       </c>
-      <c r="F116" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="F116" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A117" s="13">
         <v>238986</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="14">
         <v>38.83</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="14">
         <v>35.44</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="14">
         <v>22.72</v>
       </c>
-      <c r="F117" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="F117" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A118" s="13">
         <v>238987</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="14">
         <v>38.83</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="14">
         <v>35.44</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="14">
         <v>22.72</v>
       </c>
-      <c r="F118" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="F118" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A119" s="13">
         <v>238988</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="14">
         <v>38.83</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="14">
         <v>35.44</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="14">
         <v>22.72</v>
       </c>
-      <c r="F119" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="F119" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A120" s="13">
         <v>238989</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="14">
         <v>36.340000000000003</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="14">
         <v>38.83</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="14">
         <v>35.44</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="14">
         <v>22.72</v>
       </c>
-      <c r="F120" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="F120" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="16">
         <v>238990</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="17">
         <v>36.94</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="17">
         <v>39.44</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="17">
         <v>36.04</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="17">
         <v>23.02</v>
       </c>
-      <c r="F121" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="F121" s="18">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A122" s="10">
         <v>238991</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="11">
         <v>36.94</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="11">
         <v>39.44</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="11">
         <v>36.04</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="11">
         <v>23.02</v>
       </c>
-      <c r="F122" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="F122" s="12">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A123" s="13">
         <v>238992</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="14">
         <v>36.94</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="14">
         <v>39.44</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="14">
         <v>36.04</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="14">
         <v>23.02</v>
       </c>
-      <c r="F123" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="F123" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A124" s="13">
         <v>238993</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="14">
         <v>36.94</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="14">
         <v>39.44</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="14">
         <v>36.04</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="14">
         <v>23.02</v>
       </c>
-      <c r="F124" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="F124" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A125" s="13">
         <v>238994</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="14">
         <v>36.94</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="14">
         <v>39.44</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="14">
         <v>36.04</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="14">
         <v>23.02</v>
       </c>
-      <c r="F125" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="F125" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A126" s="13">
         <v>238995</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="14">
         <v>36.94</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="14">
         <v>39.44</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="14">
         <v>36.04</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="14">
         <v>23.02</v>
       </c>
-      <c r="F126" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="F126" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A127" s="13">
         <v>238996</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="14">
         <v>36.94</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="14">
         <v>39.44</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="14">
         <v>36.04</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="14">
         <v>23.02</v>
       </c>
-      <c r="F127" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="F127" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A128" s="13">
         <v>238997</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="14">
         <v>36.14</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="14">
         <v>38.64</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="14">
         <v>35.24</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="14">
         <v>22.62</v>
       </c>
-      <c r="F128" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="F128" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A129" s="13">
         <v>238998</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="14">
         <v>36.14</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="14">
         <v>38.64</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="14">
         <v>35.24</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="14">
         <v>22.62</v>
       </c>
-      <c r="F129" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="F129" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A130" s="13">
         <v>238999</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="14">
         <v>36.14</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="14">
         <v>38.64</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="14">
         <v>35.24</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="14">
         <v>22.62</v>
       </c>
-      <c r="F130" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="F130" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A131" s="13">
         <v>239000</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="14">
         <v>35.54</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="14">
         <v>38.04</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="14">
         <v>34.64</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="14">
         <v>22.32</v>
       </c>
-      <c r="F131" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="F131" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A132" s="13">
         <v>239001</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="14">
         <v>35.54</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="14">
         <v>38.04</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="14">
         <v>34.64</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="14">
         <v>22.32</v>
       </c>
-      <c r="F132" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="F132" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A133" s="13">
         <v>239002</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="14">
         <v>36.14</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="14">
         <v>38.64</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="14">
         <v>35.24</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="14">
         <v>22.62</v>
       </c>
-      <c r="F133" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="F133" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A134" s="13">
         <v>239003</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="14">
         <v>36.14</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="14">
         <v>38.64</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="14">
         <v>35.24</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="14">
         <v>22.62</v>
       </c>
-      <c r="F134" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="F134" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A135" s="13">
         <v>239004</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="14">
         <v>35.74</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="14">
         <v>38.24</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="14">
         <v>22.42</v>
       </c>
-      <c r="F135" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="F135" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A136" s="13">
         <v>239005</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="14">
         <v>35.74</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="14">
         <v>38.24</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="14">
         <v>22.42</v>
       </c>
-      <c r="F136" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="F136" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A137" s="13">
         <v>239006</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="14">
         <v>35.74</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="14">
         <v>38.24</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="14">
         <v>22.42</v>
       </c>
-      <c r="F137" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="F137" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A138" s="13">
         <v>239007</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="14">
         <v>35.74</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="14">
         <v>38.24</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="14">
         <v>34.840000000000003</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="14">
         <v>22.42</v>
       </c>
-      <c r="F138" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="F138" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A139" s="13">
         <v>239008</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="14">
         <v>35.44</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="14">
         <v>37.94</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="14">
         <v>34.54</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="14">
         <v>22.42</v>
       </c>
-      <c r="F139" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="F139" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A140" s="13">
         <v>239009</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="14">
         <v>35.44</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="14">
         <v>37.94</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="14">
         <v>34.54</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="14">
         <v>22.42</v>
       </c>
-      <c r="F140" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="F140" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A141" s="13">
         <v>239010</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="14">
         <v>35.04</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="14">
         <v>37.54</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="14">
         <v>34.14</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="14">
         <v>22.22</v>
       </c>
-      <c r="F141" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="F141" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A142" s="13">
         <v>239011</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="14">
         <v>35.04</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="14">
         <v>37.54</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="14">
         <v>34.14</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="14">
         <v>22.22</v>
       </c>
-      <c r="F142" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="F142" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A143" s="13">
         <v>239012</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="14">
         <v>35.04</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="14">
         <v>37.54</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="14">
         <v>34.14</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="14">
         <v>22.22</v>
       </c>
-      <c r="F143" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="F143" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A144" s="13">
         <v>239013</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="14">
         <v>35.04</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="14">
         <v>37.54</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="14">
         <v>34.14</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="14">
         <v>22.22</v>
       </c>
-      <c r="F144" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="F144" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A145" s="13">
         <v>239014</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="14">
         <v>35.04</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="14">
         <v>37.54</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="14">
         <v>34.14</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="14">
         <v>22.22</v>
       </c>
-      <c r="F145" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="F145" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A146" s="13">
         <v>239015</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="14">
         <v>34.64</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="14">
         <v>37.14</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="14">
         <v>33.74</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="14">
         <v>22.02</v>
       </c>
-      <c r="F146" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="F146" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A147" s="13">
         <v>239016</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="14">
         <v>34.64</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="14">
         <v>37.14</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="14">
         <v>33.74</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="14">
         <v>22.02</v>
       </c>
-      <c r="F147" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="F147" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A148" s="13">
         <v>239017</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="14">
         <v>34.64</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="14">
         <v>37.14</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="14">
         <v>33.74</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="14">
         <v>22.02</v>
       </c>
-      <c r="F148" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="F148" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A149" s="13">
         <v>239018</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="14">
         <v>35.04</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="14">
         <v>37.54</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="14">
         <v>34.14</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="14">
         <v>22.22</v>
       </c>
-      <c r="F149" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="F149" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A150" s="13">
         <v>239019</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="14">
         <v>35.04</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="14">
         <v>37.54</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="14">
         <v>34.14</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="14">
         <v>22.22</v>
       </c>
-      <c r="F150" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="F150" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A151" s="13">
         <v>239020</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="14">
         <v>35.04</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="14">
         <v>37.54</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="14">
         <v>34.14</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="14">
         <v>22.22</v>
       </c>
-      <c r="F151" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="F151" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="16">
         <v>239021</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="17">
         <v>35.04</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="17">
         <v>37.54</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="17">
         <v>34.14</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="17">
         <v>22.22</v>
       </c>
-      <c r="F152" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="F152" s="18">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A153" s="10">
         <v>239022</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="11">
         <v>35.04</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="11">
         <v>37.54</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="11">
         <v>34.14</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="11">
         <v>22.22</v>
       </c>
-      <c r="F153" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="F153" s="12">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A154" s="13">
         <v>239023</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="14">
         <v>35.04</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="14">
         <v>37.54</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="14">
         <v>34.14</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="14">
         <v>22.22</v>
       </c>
-      <c r="F154" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="F154" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A155" s="13">
         <v>239024</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="14">
         <v>35.04</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="14">
         <v>37.54</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="14">
         <v>34.14</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="14">
         <v>22.22</v>
       </c>
-      <c r="F155" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="F155" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A156" s="13">
         <v>239025</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="14">
         <v>35.04</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="14">
         <v>37.54</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="14">
         <v>34.14</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="14">
         <v>22.22</v>
       </c>
-      <c r="F156" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="F156" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A157" s="13">
         <v>239026</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="14">
         <v>35.04</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="14">
         <v>37.54</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="14">
         <v>34.14</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="14">
         <v>22.22</v>
       </c>
-      <c r="F157" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="F157" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A158" s="13">
         <v>239027</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="14">
         <v>35.04</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="14">
         <v>37.54</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="14">
         <v>34.14</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="14">
         <v>22.22</v>
       </c>
-      <c r="F158" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="F158" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A159" s="13">
         <v>239028</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="14">
         <v>35.04</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="14">
         <v>37.54</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="14">
         <v>34.14</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="14">
         <v>22.22</v>
       </c>
-      <c r="F159" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="F159" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A160" s="13">
         <v>239029</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="14">
         <v>35.04</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="14">
         <v>37.54</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="14">
         <v>34.14</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="14">
         <v>22.22</v>
       </c>
-      <c r="F160" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="F160" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A161" s="13">
         <v>239030</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="14">
         <v>35.04</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="14">
         <v>37.54</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="14">
         <v>34.14</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="14">
         <v>22.22</v>
       </c>
-      <c r="F161" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="F161" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A162" s="13">
         <v>239031</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="14">
         <v>35.04</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="14">
         <v>37.54</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="14">
         <v>34.14</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="14">
         <v>22.22</v>
       </c>
-      <c r="F162" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="F162" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A163" s="13">
         <v>239032</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="14">
         <v>35.54</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="14">
         <v>38.04</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="14">
         <v>34.64</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="14">
         <v>22.52</v>
       </c>
-      <c r="F163" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="F163" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A164" s="13">
         <v>239033</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="14">
         <v>35.54</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="14">
         <v>38.04</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="14">
         <v>34.64</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="14">
         <v>22.52</v>
       </c>
-      <c r="F164" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="F164" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A165" s="13">
         <v>239034</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="14">
         <v>35.54</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="14">
         <v>38.04</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="14">
         <v>34.64</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="14">
         <v>22.52</v>
       </c>
-      <c r="F165" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="F165" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A166" s="13">
         <v>239035</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="14">
         <v>35.54</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="14">
         <v>38.04</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="14">
         <v>34.64</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="14">
         <v>22.52</v>
       </c>
-      <c r="F166" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="F166" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A167" s="13">
         <v>239036</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="14">
         <v>35.54</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="14">
         <v>38.04</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="14">
         <v>34.64</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="14">
         <v>22.52</v>
       </c>
-      <c r="F167" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="F167" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A168" s="13">
         <v>239037</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="14">
         <v>35.54</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="14">
         <v>38.04</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="14">
         <v>34.64</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="14">
         <v>22.52</v>
       </c>
-      <c r="F168" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="F168" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A169" s="13">
         <v>239038</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="14">
         <v>35.54</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="14">
         <v>38.04</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="14">
         <v>34.64</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="14">
         <v>22.52</v>
       </c>
-      <c r="F169" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="F169" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A170" s="13">
         <v>239039</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="14">
         <v>35.54</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="14">
         <v>38.04</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="14">
         <v>34.64</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="14">
         <v>22.52</v>
       </c>
-      <c r="F170" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+      <c r="F170" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A171" s="13">
         <v>239040</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="14">
         <v>35.04</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="14">
         <v>37.54</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="14">
         <v>34.14</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="14">
         <v>22.22</v>
       </c>
-      <c r="F171" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="F171" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A172" s="13">
         <v>239041</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="14">
         <v>35.04</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="14">
         <v>37.54</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="14">
         <v>34.14</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="14">
         <v>22.22</v>
       </c>
-      <c r="F172" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="F172" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A173" s="13">
         <v>239042</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="14">
         <v>35.04</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="14">
         <v>37.54</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="14">
         <v>34.14</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="14">
         <v>22.22</v>
       </c>
-      <c r="F173" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="F173" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A174" s="13">
         <v>239043</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="14">
         <v>35.04</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="14">
         <v>37.54</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="14">
         <v>34.14</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="14">
         <v>22.22</v>
       </c>
-      <c r="F174" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="F174" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A175" s="13">
         <v>239044</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="14">
         <v>35.04</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="14">
         <v>37.54</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="14">
         <v>34.14</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="14">
         <v>22.22</v>
       </c>
-      <c r="F175" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="F175" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A176" s="13">
         <v>239045</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="14">
         <v>35.04</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="14">
         <v>37.54</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="14">
         <v>34.14</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="14">
         <v>22.22</v>
       </c>
-      <c r="F176" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="F176" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A177" s="13">
         <v>239046</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="14">
         <v>34.44</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="14">
         <v>36.94</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="14">
         <v>33.54</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="14">
         <v>21.92</v>
       </c>
-      <c r="F177" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="F177" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A178" s="13">
         <v>239047</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="14">
         <v>34.44</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="14">
         <v>36.94</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="14">
         <v>33.54</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="14">
         <v>21.92</v>
       </c>
-      <c r="F178" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+      <c r="F178" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A179" s="13">
         <v>239048</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="14">
         <v>34.44</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="14">
         <v>36.94</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="14">
         <v>33.54</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="14">
         <v>21.92</v>
       </c>
-      <c r="F179" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="F179" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A180" s="13">
         <v>239049</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="14">
         <v>34.04</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="14">
         <v>36.54</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="14">
         <v>33.14</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="14">
         <v>21.72</v>
       </c>
-      <c r="F180" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="F180" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A181" s="13">
         <v>239050</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="14">
         <v>34.04</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="14">
         <v>36.54</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="14">
         <v>33.14</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="14">
         <v>21.72</v>
       </c>
-      <c r="F181" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="F181" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="16">
         <v>239051</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="17">
         <v>34.04</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="17">
         <v>36.54</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="17">
         <v>33.14</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="17">
         <v>21.72</v>
       </c>
-      <c r="F182" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="F182" s="18">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A183" s="10">
         <v>239052</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="11">
         <v>34.64</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="11">
         <v>37.14</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="11">
         <v>33.74</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="11">
         <v>22.02</v>
       </c>
-      <c r="F183" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="F183" s="12">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A184" s="13">
         <v>239053</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="14">
         <v>34.64</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="14">
         <v>37.14</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="14">
         <v>33.74</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="14">
         <v>22.02</v>
       </c>
-      <c r="F184" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="F184" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A185" s="13">
         <v>239054</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="14">
         <v>34.64</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="14">
         <v>37.14</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="14">
         <v>33.74</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="14">
         <v>22.02</v>
       </c>
-      <c r="F185" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="F185" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A186" s="13">
         <v>239055</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="14">
         <v>35.24</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="14">
         <v>37.74</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="14">
         <v>22.32</v>
       </c>
-      <c r="F186" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+      <c r="F186" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A187" s="13">
         <v>239056</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="14">
         <v>35.24</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="14">
         <v>37.74</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="14">
         <v>22.32</v>
       </c>
-      <c r="F187" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="F187" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A188" s="13">
         <v>239057</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="14">
         <v>35.24</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="14">
         <v>37.74</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="14">
         <v>22.32</v>
       </c>
-      <c r="F188" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+      <c r="F188" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A189" s="13">
         <v>239058</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="14">
         <v>35.24</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="14">
         <v>37.74</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="14">
         <v>34.340000000000003</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="14">
         <v>22.32</v>
       </c>
-      <c r="F189" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="F189" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A190" s="13">
         <v>239059</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="14">
         <v>35.64</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="14">
         <v>38.14</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="14">
         <v>34.74</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="14">
         <v>22.52</v>
       </c>
-      <c r="F190" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+      <c r="F190" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A191" s="13">
         <v>239060</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="14">
         <v>35.64</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="14">
         <v>38.14</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="14">
         <v>34.74</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="14">
         <v>22.52</v>
       </c>
-      <c r="F191" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="F191" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A192" s="13">
         <v>239061</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="14">
         <v>35.64</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="14">
         <v>38.14</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="14">
         <v>34.74</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="14">
         <v>22.52</v>
       </c>
-      <c r="F192" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="F192" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A193" s="13">
         <v>239062</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="14">
         <v>35.64</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="14">
         <v>38.14</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="14">
         <v>34.74</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="14">
         <v>22.52</v>
       </c>
-      <c r="F193" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="F193" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A194" s="13">
         <v>239063</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="14">
         <v>36.14</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="14">
         <v>38.64</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="14">
         <v>35.24</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="14">
         <v>22.82</v>
       </c>
-      <c r="F194" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+      <c r="F194" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A195" s="13">
         <v>239064</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="14">
         <v>36.14</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="14">
         <v>38.64</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="14">
         <v>35.24</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="14">
         <v>22.82</v>
       </c>
-      <c r="F195" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="F195" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A196" s="13">
         <v>239065</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="14">
         <v>36.14</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="14">
         <v>38.64</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="14">
         <v>35.24</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="14">
         <v>22.82</v>
       </c>
-      <c r="F196" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+      <c r="F196" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A197" s="13">
         <v>239066</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="14">
         <v>36.14</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="14">
         <v>38.64</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="14">
         <v>35.24</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="14">
         <v>22.82</v>
       </c>
-      <c r="F197" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="F197" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A198" s="13">
         <v>239067</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="14">
         <v>36.14</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="14">
         <v>38.64</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="14">
         <v>35.24</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="14">
         <v>22.82</v>
       </c>
-      <c r="F198" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+      <c r="F198" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A199" s="13">
         <v>239068</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="14">
         <v>36.14</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="14">
         <v>38.64</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="14">
         <v>35.24</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="14">
         <v>22.82</v>
       </c>
-      <c r="F199" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="F199" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A200" s="13">
         <v>239069</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="14">
         <v>36.14</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="14">
         <v>38.64</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="14">
         <v>35.24</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="14">
         <v>22.82</v>
       </c>
-      <c r="F200" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="F200" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A201" s="13">
         <v>239070</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="14">
         <v>36.14</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="14">
         <v>38.64</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="14">
         <v>35.24</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="14">
         <v>22.82</v>
       </c>
-      <c r="F201" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="F201" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A202" s="13">
         <v>239071</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="14">
         <v>35.64</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="14">
         <v>38.14</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="14">
         <v>34.74</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="14">
         <v>22.52</v>
       </c>
-      <c r="F202" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+      <c r="F202" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A203" s="13">
         <v>239072</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="14">
         <v>35.64</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="14">
         <v>38.14</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="14">
         <v>34.74</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="14">
         <v>22.52</v>
       </c>
-      <c r="F203" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="F203" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A204" s="13">
         <v>239073</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="14">
         <v>35.64</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="14">
         <v>38.14</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="14">
         <v>34.74</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="14">
         <v>22.52</v>
       </c>
-      <c r="F204" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+      <c r="F204" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A205" s="13">
         <v>239074</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="14">
         <v>35.64</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="14">
         <v>38.14</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="14">
         <v>34.74</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="14">
         <v>22.52</v>
       </c>
-      <c r="F205" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="F205" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A206" s="13">
         <v>239075</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="14">
         <v>35.64</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="14">
         <v>38.14</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="14">
         <v>34.74</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="14">
         <v>22.52</v>
       </c>
-      <c r="F206" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+      <c r="F206" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A207" s="13">
         <v>239076</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="14">
         <v>35.64</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="14">
         <v>38.14</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="14">
         <v>34.74</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="14">
         <v>22.52</v>
       </c>
-      <c r="F207" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+      <c r="F207" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A208" s="13">
         <v>239077</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="14">
         <v>35.64</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="14">
         <v>38.14</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="14">
         <v>34.74</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="14">
         <v>22.52</v>
       </c>
-      <c r="F208" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+      <c r="F208" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A209" s="13">
         <v>239078</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="14">
         <v>35.64</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="14">
         <v>38.14</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="14">
         <v>34.74</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="14">
         <v>22.52</v>
       </c>
-      <c r="F209" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="F209" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A210" s="13">
         <v>239079</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="14">
         <v>35.64</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="14">
         <v>38.14</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="14">
         <v>34.74</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="14">
         <v>22.52</v>
       </c>
-      <c r="F210" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+      <c r="F210" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A211" s="13">
         <v>239080</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="14">
         <v>35.64</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="14">
         <v>38.14</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="14">
         <v>34.74</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="14">
         <v>22.52</v>
       </c>
-      <c r="F211" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+      <c r="F211" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A212" s="13">
         <v>239081</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="14">
         <v>35.64</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="14">
         <v>38.14</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="14">
         <v>34.14</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="14">
         <v>22.52</v>
       </c>
-      <c r="F212" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+      <c r="F212" s="15">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="16">
         <v>239082</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="17">
         <v>35.64</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="17">
         <v>38.14</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="17">
         <v>34.14</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="17">
         <v>22.52</v>
       </c>
-      <c r="F213" s="2">
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="F213" s="18">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>239083</v>
       </c>
@@ -4706,7 +4883,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>239084</v>
       </c>
@@ -4726,7 +4903,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>239085</v>
       </c>
@@ -4746,7 +4923,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>239086</v>
       </c>
@@ -4766,7 +4943,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>239087</v>
       </c>
@@ -4786,7 +4963,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>239088</v>
       </c>
@@ -4806,7 +4983,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>239089</v>
       </c>
@@ -4826,7 +5003,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>239090</v>
       </c>
@@ -4846,7 +5023,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>239091</v>
       </c>
@@ -4866,7 +5043,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>239092</v>
       </c>
@@ -4886,7 +5063,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>239093</v>
       </c>
@@ -4906,7 +5083,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>239094</v>
       </c>
@@ -4926,7 +5103,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>239095</v>
       </c>
@@ -4946,7 +5123,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>239096</v>
       </c>
@@ -4966,7 +5143,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>239097</v>
       </c>
@@ -4986,7 +5163,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>239098</v>
       </c>
@@ -5006,7 +5183,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>239099</v>
       </c>
@@ -5026,7 +5203,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>239100</v>
       </c>
@@ -5046,7 +5223,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>239101</v>
       </c>
@@ -5066,7 +5243,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>239102</v>
       </c>
@@ -5086,7 +5263,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>239103</v>
       </c>
@@ -5106,7 +5283,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>239104</v>
       </c>
@@ -5126,7 +5303,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>239105</v>
       </c>
@@ -5146,7 +5323,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>239106</v>
       </c>
@@ -5166,7 +5343,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>239107</v>
       </c>
@@ -5186,7 +5363,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>239108</v>
       </c>
@@ -5206,7 +5383,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>239109</v>
       </c>
@@ -5226,7 +5403,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>239110</v>
       </c>
@@ -5246,7 +5423,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>239111</v>
       </c>
@@ -5266,7 +5443,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>239112</v>
       </c>
@@ -5286,7 +5463,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>239113</v>
       </c>
@@ -5306,7 +5483,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>239114</v>
       </c>
@@ -5326,7 +5503,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>239115</v>
       </c>
@@ -5346,7 +5523,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>239116</v>
       </c>
@@ -5366,7 +5543,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>239117</v>
       </c>
@@ -5386,7 +5563,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>239118</v>
       </c>
@@ -5406,7 +5583,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>239119</v>
       </c>
@@ -5426,7 +5603,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>239120</v>
       </c>
@@ -5446,7 +5623,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>239121</v>
       </c>
@@ -5466,7 +5643,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>239122</v>
       </c>
@@ -5486,7 +5663,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>239123</v>
       </c>
@@ -5506,7 +5683,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>239124</v>
       </c>
@@ -5526,7 +5703,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>239125</v>
       </c>
@@ -5546,7 +5723,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>239126</v>
       </c>
@@ -5566,7 +5743,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>239127</v>
       </c>
@@ -5586,7 +5763,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>239128</v>
       </c>
@@ -5606,7 +5783,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>239129</v>
       </c>
@@ -5626,7 +5803,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>239130</v>
       </c>
@@ -5646,7 +5823,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>239131</v>
       </c>
@@ -5666,7 +5843,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>239132</v>
       </c>
@@ -5686,7 +5863,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>239133</v>
       </c>
@@ -5706,7 +5883,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>239134</v>
       </c>
@@ -5726,7 +5903,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>239135</v>
       </c>
@@ -5746,7 +5923,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>239136</v>
       </c>
@@ -5766,7 +5943,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>239137</v>
       </c>
@@ -5786,7 +5963,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>239138</v>
       </c>
@@ -5806,7 +5983,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>239139</v>
       </c>
@@ -5826,7 +6003,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>239140</v>
       </c>
@@ -5846,7 +6023,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>239141</v>
       </c>
@@ -5866,7 +6043,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>239142</v>
       </c>
@@ -5886,7 +6063,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>239143</v>
       </c>
@@ -5906,7 +6083,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>239144</v>
       </c>
@@ -5926,7 +6103,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>239145</v>
       </c>
@@ -5946,7 +6123,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>239146</v>
       </c>
@@ -5966,7 +6143,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>239147</v>
       </c>
@@ -5986,7 +6163,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>239148</v>
       </c>
@@ -6006,7 +6183,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>239149</v>
       </c>
@@ -6026,7 +6203,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>239150</v>
       </c>
@@ -6046,7 +6223,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>239151</v>
       </c>
@@ -6066,7 +6243,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>239152</v>
       </c>
@@ -6086,7 +6263,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>239153</v>
       </c>
@@ -6106,7 +6283,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>239154</v>
       </c>
@@ -6126,7 +6303,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>239155</v>
       </c>
@@ -6146,7 +6323,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>239156</v>
       </c>
@@ -6166,7 +6343,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>239157</v>
       </c>
@@ -6186,7 +6363,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>239158</v>
       </c>
@@ -6206,7 +6383,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>239159</v>
       </c>
@@ -6226,7 +6403,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>239160</v>
       </c>
@@ -6246,7 +6423,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>239161</v>
       </c>
@@ -6266,7 +6443,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>239162</v>
       </c>
@@ -6286,7 +6463,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>239163</v>
       </c>
@@ -6306,7 +6483,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>239164</v>
       </c>
@@ -6326,7 +6503,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>239165</v>
       </c>
@@ -6346,7 +6523,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>239166</v>
       </c>
@@ -6366,7 +6543,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>239167</v>
       </c>
@@ -6386,7 +6563,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>239168</v>
       </c>
@@ -6406,7 +6583,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>239169</v>
       </c>
@@ -6426,7 +6603,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>239170</v>
       </c>
@@ -6446,7 +6623,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>239171</v>
       </c>
@@ -6466,7 +6643,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>239172</v>
       </c>
@@ -6486,7 +6663,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>239173</v>
       </c>
@@ -6506,7 +6683,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>239174</v>
       </c>
@@ -6526,7 +6703,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>239175</v>
       </c>
@@ -6546,7 +6723,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>239176</v>
       </c>
@@ -6566,7 +6743,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>239177</v>
       </c>
@@ -6586,7 +6763,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>239178</v>
       </c>
@@ -6606,7 +6783,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>239179</v>
       </c>
@@ -6626,7 +6803,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>239180</v>
       </c>
@@ -6646,7 +6823,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>239181</v>
       </c>
@@ -6666,7 +6843,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>239182</v>
       </c>
@@ -6686,7 +6863,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>239183</v>
       </c>
@@ -6706,7 +6883,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>239184</v>
       </c>
@@ -6726,7 +6903,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>239185</v>
       </c>
@@ -6746,7 +6923,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>239186</v>
       </c>
@@ -6766,7 +6943,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>239187</v>
       </c>
@@ -6786,7 +6963,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>239188</v>
       </c>
@@ -6806,7 +6983,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>239189</v>
       </c>
@@ -6826,7 +7003,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>239190</v>
       </c>
@@ -6846,7 +7023,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>239191</v>
       </c>
@@ -6866,7 +7043,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>239192</v>
       </c>
@@ -6886,7 +7063,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>239193</v>
       </c>
@@ -6906,7 +7083,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>239194</v>
       </c>
@@ -6926,7 +7103,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>239195</v>
       </c>
@@ -6946,7 +7123,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>239196</v>
       </c>
@@ -6966,7 +7143,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>239197</v>
       </c>
@@ -6986,7 +7163,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>239198</v>
       </c>
@@ -7006,7 +7183,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>239199</v>
       </c>
@@ -7026,7 +7203,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>239200</v>
       </c>
@@ -7046,7 +7223,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>239201</v>
       </c>
@@ -7066,7 +7243,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>239202</v>
       </c>
@@ -7086,7 +7263,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>239203</v>
       </c>
@@ -7106,7 +7283,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>239204</v>
       </c>
@@ -7126,7 +7303,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>239205</v>
       </c>
@@ -7146,7 +7323,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>239206</v>
       </c>
@@ -7166,7 +7343,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>239207</v>
       </c>
@@ -7186,7 +7363,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>239208</v>
       </c>
@@ -7206,7 +7383,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>239209</v>
       </c>
@@ -7226,7 +7403,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>239210</v>
       </c>
@@ -7246,7 +7423,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>239211</v>
       </c>
@@ -7266,7 +7443,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>239212</v>
       </c>
@@ -7286,7 +7463,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>239213</v>
       </c>
@@ -7306,7 +7483,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>239214</v>
       </c>
@@ -7326,7 +7503,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>239215</v>
       </c>
@@ -7346,7 +7523,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>239216</v>
       </c>
@@ -7366,7 +7543,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>239217</v>
       </c>
@@ -7386,7 +7563,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>239218</v>
       </c>
@@ -7406,7 +7583,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>239219</v>
       </c>
@@ -7426,7 +7603,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>239220</v>
       </c>
@@ -7446,7 +7623,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>239221</v>
       </c>
@@ -7466,7 +7643,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>239222</v>
       </c>
@@ -7486,7 +7663,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>239223</v>
       </c>
@@ -7506,7 +7683,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>239224</v>
       </c>
@@ -7526,7 +7703,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>239225</v>
       </c>
@@ -7546,7 +7723,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>239226</v>
       </c>
@@ -7566,7 +7743,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>239227</v>
       </c>
@@ -7586,7 +7763,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>239228</v>
       </c>
@@ -7606,7 +7783,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>239229</v>
       </c>
@@ -7626,7 +7803,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>239230</v>
       </c>
@@ -7646,7 +7823,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>239231</v>
       </c>
@@ -7666,7 +7843,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>239232</v>
       </c>
@@ -7686,7 +7863,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>239233</v>
       </c>
@@ -7706,7 +7883,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>239234</v>
       </c>
@@ -7726,7 +7903,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>239235</v>
       </c>

--- a/psit_data.xlsx
+++ b/psit_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD67BD2-485D-46DD-9099-7ABAA7B0696A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF7BEF9-734F-4D60-98DD-E68A8338207F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14376" yWindow="1380" windowWidth="22044" windowHeight="14424" xr2:uid="{4AE04AE7-66B0-1741-989E-5B1696ED2368}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="194" formatCode="0.0000"/>
+    <numFmt numFmtId="187" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -372,12 +372,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FFD446-779C-B447-BE46-92DE5507A904}">
   <dimension ref="A1:F397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,159 +8061,97 @@
       </c>
     </row>
     <row r="367" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A367" s="17">
-        <v>239236</v>
-      </c>
+      <c r="A367" s="17"/>
     </row>
     <row r="368" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A368" s="17">
-        <v>239237</v>
-      </c>
+      <c r="A368" s="17"/>
     </row>
     <row r="369" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A369" s="17">
-        <v>239238</v>
-      </c>
+      <c r="A369" s="17"/>
     </row>
     <row r="370" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A370" s="17">
-        <v>239239</v>
-      </c>
+      <c r="A370" s="17"/>
     </row>
     <row r="371" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A371" s="17">
-        <v>239240</v>
-      </c>
+      <c r="A371" s="17"/>
     </row>
     <row r="372" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A372" s="17">
-        <v>239241</v>
-      </c>
+      <c r="A372" s="17"/>
     </row>
     <row r="373" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A373" s="17">
-        <v>239242</v>
-      </c>
+      <c r="A373" s="17"/>
     </row>
     <row r="374" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A374" s="17">
-        <v>239243</v>
-      </c>
+      <c r="A374" s="17"/>
     </row>
     <row r="375" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A375" s="17">
-        <v>239244</v>
-      </c>
+      <c r="A375" s="17"/>
     </row>
     <row r="376" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A376" s="17">
-        <v>239245</v>
-      </c>
+      <c r="A376" s="17"/>
     </row>
     <row r="377" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A377" s="17">
-        <v>239246</v>
-      </c>
+      <c r="A377" s="17"/>
     </row>
     <row r="378" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A378" s="17">
-        <v>239247</v>
-      </c>
+      <c r="A378" s="17"/>
     </row>
     <row r="379" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A379" s="17">
-        <v>239248</v>
-      </c>
+      <c r="A379" s="17"/>
     </row>
     <row r="380" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A380" s="17">
-        <v>239249</v>
-      </c>
+      <c r="A380" s="17"/>
     </row>
     <row r="381" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A381" s="17">
-        <v>239250</v>
-      </c>
+      <c r="A381" s="17"/>
     </row>
     <row r="382" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A382" s="17">
-        <v>239251</v>
-      </c>
+      <c r="A382" s="17"/>
     </row>
     <row r="383" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A383" s="17">
-        <v>239252</v>
-      </c>
+      <c r="A383" s="17"/>
     </row>
     <row r="384" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A384" s="17">
-        <v>239253</v>
-      </c>
+      <c r="A384" s="17"/>
     </row>
     <row r="385" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A385" s="17">
-        <v>239254</v>
-      </c>
+      <c r="A385" s="17"/>
     </row>
     <row r="386" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A386" s="17">
-        <v>239255</v>
-      </c>
+      <c r="A386" s="17"/>
     </row>
     <row r="387" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A387" s="17">
-        <v>239256</v>
-      </c>
+      <c r="A387" s="17"/>
     </row>
     <row r="388" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A388" s="17">
-        <v>239257</v>
-      </c>
+      <c r="A388" s="17"/>
     </row>
     <row r="389" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A389" s="17">
-        <v>239258</v>
-      </c>
+      <c r="A389" s="17"/>
     </row>
     <row r="390" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A390" s="17">
-        <v>239259</v>
-      </c>
+      <c r="A390" s="17"/>
     </row>
     <row r="391" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A391" s="17">
-        <v>239260</v>
-      </c>
+      <c r="A391" s="17"/>
     </row>
     <row r="392" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A392" s="17">
-        <v>239261</v>
-      </c>
+      <c r="A392" s="17"/>
     </row>
     <row r="393" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A393" s="17">
-        <v>239262</v>
-      </c>
+      <c r="A393" s="17"/>
     </row>
     <row r="394" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A394" s="17">
-        <v>239263</v>
-      </c>
+      <c r="A394" s="17"/>
     </row>
     <row r="395" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A395" s="17">
-        <v>239264</v>
-      </c>
+      <c r="A395" s="17"/>
     </row>
     <row r="396" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A396" s="17">
-        <v>239265</v>
-      </c>
+      <c r="A396" s="17"/>
     </row>
     <row r="397" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A397" s="17">
-        <v>239266</v>
-      </c>
+      <c r="A397" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
